--- a/case_123_20_data.xlsx
+++ b/case_123_20_data.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49412\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49412\Downloads\IEGDS_Restoration-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B018ADC-FD5D-4FFA-A406-7FDAAE5541CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86552C47-67A9-4DA9-BBE9-C35E6E1EBE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="599" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power system" sheetId="1" r:id="rId1"/>
     <sheet name="branch" sheetId="3" r:id="rId2"/>
     <sheet name="DG" sheetId="2" r:id="rId3"/>
     <sheet name="Gas network" sheetId="4" r:id="rId4"/>
-    <sheet name="crew&amp;location" sheetId="5" r:id="rId5"/>
+    <sheet name="Crews" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G127" sqref="A4:G127"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7147,8 +7147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8221,10 +8221,10 @@
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="5">
         <v>78</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="5">
         <v>1</v>
       </c>
       <c r="C57" s="2"/>
@@ -8333,8 +8333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
